--- a/data/PhytopathologyLab_6_2024.xlsx
+++ b/data/PhytopathologyLab_6_2024.xlsx
@@ -2060,7 +2060,7 @@
         <v/>
       </c>
       <c r="S8" s="1" t="n">
-        <v/>
+        <v>6</v>
       </c>
       <c r="T8" s="1" t="n">
         <v/>
@@ -2081,7 +2081,7 @@
         <v/>
       </c>
       <c r="Z8" s="1" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA8" s="1" t="n">
         <v/>
@@ -2090,7 +2090,7 @@
         <v/>
       </c>
       <c r="AC8" s="1" t="n">
-        <v/>
+        <v>1.3</v>
       </c>
       <c r="AD8" s="1" t="n">
         <v/>
@@ -2174,7 +2174,7 @@
         <v/>
       </c>
       <c r="BE8" s="1" t="n">
-        <v/>
+        <v>1.3</v>
       </c>
       <c r="BF8" s="1" t="n">
         <v/>
@@ -2183,7 +2183,7 @@
         <v/>
       </c>
       <c r="BH8" s="1" t="n">
-        <v/>
+        <v>12</v>
       </c>
       <c r="BI8" s="1" t="n"/>
       <c r="BJ8" s="1" t="n"/>
